--- a/outputs-HGR-r202/test-o__Verrucomicrobiales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Verrucomicrobiales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,14 +92,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,154 +122,154 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>28724.416059566604</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>96498.875125477236</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>96484.654994095006</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>81949.788452993496</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>48389.937403419724</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>104549.86787078655</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>102228.83713563389</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>81280.101526164945</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>82870.820477338653</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>87521.314502545225</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>87480.365440534282</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>121875.69746683838</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>50698.799158333859</v>
       </c>
       <c r="C14">
         <v>1</v>

--- a/outputs-HGR-r202/test-o__Verrucomicrobiales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Verrucomicrobiales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,18 +92,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,18 +118,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -144,7 +140,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -155,7 +151,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -166,7 +162,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -177,7 +173,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -188,7 +184,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -199,7 +195,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -210,7 +206,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -221,7 +217,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -232,7 +228,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -243,7 +239,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -254,7 +250,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -265,7 +261,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
